--- a/experiments/Dye kinetics/8_11_22 dye kinetics/a488_1mm.xlsx
+++ b/experiments/Dye kinetics/8_11_22 dye kinetics/a488_1mm.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lencer 606 Tecan\Desktop\michael a\8_11_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\experiments\Dye kinetics\8_11_22 dye kinetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DFFD1EC-68A7-4950-9582-58BE65799898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C288A619-8DE4-4CBE-BCF2-D44D36FFED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1110" windowWidth="22890" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -659,9 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M830"/>
+  <dimension ref="A1:R830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1467,7 +1481,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:18">
       <c r="A49" s="4" t="s">
         <v>64</v>
       </c>
@@ -1483,8 +1497,24 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <f ca="1">OFFSET(B$35,ROW(A1)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f ca="1">OFFSET(I$40,ROW(A1)*13,0)</f>
+        <v>45302</v>
+      </c>
+      <c r="Q49">
+        <f ca="1">OFFSET(J$40,ROW(A1)*13,0)</f>
+        <v>38883</v>
+      </c>
+      <c r="R49">
+        <f ca="1">OFFSET(K$40,ROW(A1)*13,0)</f>
+        <v>42561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
@@ -1500,8 +1530,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <f t="shared" ref="O50:O113" ca="1" si="0">OFFSET(B$35,ROW(A2)*13,0)</f>
+        <v>9.4429999999999996</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50:P113" ca="1" si="1">OFFSET(I$40,ROW(A2)*13,0)</f>
+        <v>43654</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:Q113" ca="1" si="2">OFFSET(J$40,ROW(A2)*13,0)</f>
+        <v>37831</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50:R113" ca="1" si="3">OFFSET(K$40,ROW(A2)*13,0)</f>
+        <v>41282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4" t="s">
         <v>66</v>
       </c>
@@ -1541,8 +1587,24 @@
       <c r="M51" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.437999999999999</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ca="1" si="1"/>
+        <v>42481</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="2"/>
+        <v>36639</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ca="1" si="3"/>
+        <v>40100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="4" t="s">
         <v>79</v>
       </c>
@@ -1582,8 +1644,24 @@
       <c r="M52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.437999999999999</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="1"/>
+        <v>41608</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="2"/>
+        <v>35880</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="3"/>
+        <v>39388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
@@ -1623,8 +1701,24 @@
       <c r="M53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.436999999999998</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ca="1" si="1"/>
+        <v>40317</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ca="1" si="2"/>
+        <v>35021</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ca="1" si="3"/>
+        <v>38228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4" t="s">
         <v>81</v>
       </c>
@@ -1664,8 +1758,24 @@
       <c r="M54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <f t="shared" ca="1" si="0"/>
+        <v>49.436999999999998</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ca="1" si="1"/>
+        <v>39147</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ca="1" si="2"/>
+        <v>33924</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ca="1" si="3"/>
+        <v>37309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="4" t="s">
         <v>82</v>
       </c>
@@ -1705,8 +1815,24 @@
       <c r="M55" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.432000000000002</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ca="1" si="1"/>
+        <v>37938</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ca="1" si="2"/>
+        <v>33085</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ca="1" si="3"/>
+        <v>36044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4" t="s">
         <v>83</v>
       </c>
@@ -1746,8 +1872,24 @@
       <c r="M56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.442999999999998</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ca="1" si="1"/>
+        <v>37339</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ca="1" si="2"/>
+        <v>32493</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ca="1" si="3"/>
+        <v>35363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4" t="s">
         <v>84</v>
       </c>
@@ -1787,8 +1929,24 @@
       <c r="M57" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="O57">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.436000000000007</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ca="1" si="1"/>
+        <v>36144</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="2"/>
+        <v>31392</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ca="1" si="3"/>
+        <v>34199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
@@ -1828,8 +1986,24 @@
       <c r="M58" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.436999999999998</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ca="1" si="1"/>
+        <v>35520</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="2"/>
+        <v>30686</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ca="1" si="3"/>
+        <v>33354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4" t="s">
         <v>86</v>
       </c>
@@ -1869,8 +2043,24 @@
       <c r="M59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.442999999999998</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ca="1" si="1"/>
+        <v>34610</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="2"/>
+        <v>29905</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ca="1" si="3"/>
+        <v>32854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1882,8 +2072,24 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <f t="shared" ca="1" si="0"/>
+        <v>109.44</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ca="1" si="1"/>
+        <v>33890</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="2"/>
+        <v>29359</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ca="1" si="3"/>
+        <v>31885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1899,8 +2105,24 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="O61">
+        <f t="shared" ca="1" si="0"/>
+        <v>119.44799999999999</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ca="1" si="1"/>
+        <v>32705</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="2"/>
+        <v>28382</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ca="1" si="3"/>
+        <v>31433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -1916,8 +2138,24 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.43600000000001</v>
+      </c>
+      <c r="P62">
+        <f t="shared" ca="1" si="1"/>
+        <v>32100</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="2"/>
+        <v>27601</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ca="1" si="3"/>
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -1933,8 +2171,24 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63">
+        <f t="shared" ca="1" si="0"/>
+        <v>139.45400000000001</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ca="1" si="1"/>
+        <v>31195</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="2"/>
+        <v>26900</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ca="1" si="3"/>
+        <v>29666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -1974,8 +2228,24 @@
       <c r="M64" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="O64">
+        <f t="shared" ca="1" si="0"/>
+        <v>149.44499999999999</v>
+      </c>
+      <c r="P64">
+        <f t="shared" ca="1" si="1"/>
+        <v>30603</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="2"/>
+        <v>26325</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="3"/>
+        <v>29030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4" t="s">
         <v>79</v>
       </c>
@@ -2015,8 +2285,24 @@
       <c r="M65" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="O65">
+        <f t="shared" ca="1" si="0"/>
+        <v>159.44300000000001</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ca="1" si="1"/>
+        <v>29690</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="2"/>
+        <v>25629</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="3"/>
+        <v>28389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4" t="s">
         <v>80</v>
       </c>
@@ -2056,8 +2342,24 @@
       <c r="M66" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66">
+        <f t="shared" ca="1" si="0"/>
+        <v>169.441</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ca="1" si="1"/>
+        <v>28829</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ca="1" si="2"/>
+        <v>24931</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ca="1" si="3"/>
+        <v>27558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4" t="s">
         <v>81</v>
       </c>
@@ -2097,8 +2399,24 @@
       <c r="M67" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="O67">
+        <f t="shared" ca="1" si="0"/>
+        <v>179.447</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ca="1" si="1"/>
+        <v>27913</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ca="1" si="2"/>
+        <v>24504</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ca="1" si="3"/>
+        <v>27017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4" t="s">
         <v>82</v>
       </c>
@@ -2138,8 +2456,24 @@
       <c r="M68" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="O68">
+        <f t="shared" ca="1" si="0"/>
+        <v>189.44</v>
+      </c>
+      <c r="P68">
+        <f t="shared" ca="1" si="1"/>
+        <v>27557</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ca="1" si="2"/>
+        <v>24004</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ca="1" si="3"/>
+        <v>25995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="4" t="s">
         <v>83</v>
       </c>
@@ -2179,8 +2513,24 @@
       <c r="M69" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="O69">
+        <f t="shared" ca="1" si="0"/>
+        <v>199.446</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ca="1" si="1"/>
+        <v>26612</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ca="1" si="2"/>
+        <v>23294</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ca="1" si="3"/>
+        <v>25416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="4" t="s">
         <v>84</v>
       </c>
@@ -2220,8 +2570,24 @@
       <c r="M70" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="O70">
+        <f t="shared" ca="1" si="0"/>
+        <v>209.44399999999999</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ca="1" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ca="1" si="2"/>
+        <v>22637</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ca="1" si="3"/>
+        <v>24791</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="4" t="s">
         <v>85</v>
       </c>
@@ -2261,8 +2627,24 @@
       <c r="M71" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="O71">
+        <f t="shared" ca="1" si="0"/>
+        <v>219.447</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ca="1" si="1"/>
+        <v>25187</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ca="1" si="2"/>
+        <v>22166</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ca="1" si="3"/>
+        <v>23998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="4" t="s">
         <v>86</v>
       </c>
@@ -2302,8 +2684,24 @@
       <c r="M72" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="O72">
+        <f t="shared" ca="1" si="0"/>
+        <v>229.441</v>
+      </c>
+      <c r="P72">
+        <f t="shared" ca="1" si="1"/>
+        <v>24318</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ca="1" si="2"/>
+        <v>21649</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ca="1" si="3"/>
+        <v>23684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2315,8 +2713,24 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="O73">
+        <f t="shared" ca="1" si="0"/>
+        <v>239.44</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ca="1" si="1"/>
+        <v>23913</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ca="1" si="2"/>
+        <v>21039</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ca="1" si="3"/>
+        <v>23012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="4" t="s">
         <v>63</v>
       </c>
@@ -2332,8 +2746,24 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="O74">
+        <f t="shared" ca="1" si="0"/>
+        <v>249.44</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ca="1" si="1"/>
+        <v>23222</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ca="1" si="2"/>
+        <v>20633</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ca="1" si="3"/>
+        <v>22561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -2349,8 +2779,24 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="O75">
+        <f t="shared" ca="1" si="0"/>
+        <v>259.44900000000001</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ca="1" si="1"/>
+        <v>22512</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" ca="1" si="2"/>
+        <v>20143</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ca="1" si="3"/>
+        <v>21866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
@@ -2366,8 +2812,24 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="O76">
+        <f t="shared" ca="1" si="0"/>
+        <v>269.44499999999999</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ca="1" si="1"/>
+        <v>22233</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ca="1" si="2"/>
+        <v>19510</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ca="1" si="3"/>
+        <v>21281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
@@ -2407,8 +2869,24 @@
       <c r="M77" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="O77">
+        <f t="shared" ca="1" si="0"/>
+        <v>279.452</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ca="1" si="1"/>
+        <v>21305</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ca="1" si="2"/>
+        <v>19156</v>
+      </c>
+      <c r="R77">
+        <f t="shared" ca="1" si="3"/>
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -2448,8 +2926,24 @@
       <c r="M78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="O78">
+        <f t="shared" ca="1" si="0"/>
+        <v>289.45</v>
+      </c>
+      <c r="P78">
+        <f t="shared" ca="1" si="1"/>
+        <v>20845</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ca="1" si="2"/>
+        <v>18562</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ca="1" si="3"/>
+        <v>20134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
@@ -2489,8 +2983,24 @@
       <c r="M79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="O79">
+        <f t="shared" ca="1" si="0"/>
+        <v>299.44200000000001</v>
+      </c>
+      <c r="P79">
+        <f t="shared" ca="1" si="1"/>
+        <v>20560</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ca="1" si="2"/>
+        <v>18274</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ca="1" si="3"/>
+        <v>19714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="4" t="s">
         <v>81</v>
       </c>
@@ -2530,8 +3040,24 @@
       <c r="M80" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="O80">
+        <f t="shared" ca="1" si="0"/>
+        <v>309.44900000000001</v>
+      </c>
+      <c r="P80">
+        <f t="shared" ca="1" si="1"/>
+        <v>19823</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ca="1" si="2"/>
+        <v>17731</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ca="1" si="3"/>
+        <v>19432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="4" t="s">
         <v>82</v>
       </c>
@@ -2571,8 +3097,24 @@
       <c r="M81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="O81">
+        <f t="shared" ca="1" si="0"/>
+        <v>319.44200000000001</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ca="1" si="1"/>
+        <v>19328</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ca="1" si="2"/>
+        <v>17300</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ca="1" si="3"/>
+        <v>18737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="4" t="s">
         <v>83</v>
       </c>
@@ -2612,8 +3154,24 @@
       <c r="M82" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="O82">
+        <f t="shared" ca="1" si="0"/>
+        <v>329.45</v>
+      </c>
+      <c r="P82">
+        <f t="shared" ca="1" si="1"/>
+        <v>18970</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ca="1" si="2"/>
+        <v>16822</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ca="1" si="3"/>
+        <v>18516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="4" t="s">
         <v>84</v>
       </c>
@@ -2653,8 +3211,24 @@
       <c r="M83" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83">
+        <f t="shared" ca="1" si="0"/>
+        <v>339.43400000000003</v>
+      </c>
+      <c r="P83">
+        <f t="shared" ca="1" si="1"/>
+        <v>18278</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" ca="1" si="2"/>
+        <v>16395</v>
+      </c>
+      <c r="R83">
+        <f t="shared" ca="1" si="3"/>
+        <v>17980</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -2694,8 +3268,24 @@
       <c r="M84" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="O84">
+        <f t="shared" ca="1" si="0"/>
+        <v>349.43299999999999</v>
+      </c>
+      <c r="P84">
+        <f t="shared" ca="1" si="1"/>
+        <v>17837</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" ca="1" si="2"/>
+        <v>15967</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ca="1" si="3"/>
+        <v>17417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="4" t="s">
         <v>86</v>
       </c>
@@ -2735,8 +3325,24 @@
       <c r="M85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="O85">
+        <f t="shared" ca="1" si="0"/>
+        <v>359.43099999999998</v>
+      </c>
+      <c r="P85">
+        <f t="shared" ca="1" si="1"/>
+        <v>17538</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ca="1" si="2"/>
+        <v>15724</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ca="1" si="3"/>
+        <v>17025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2748,8 +3354,24 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="O86">
+        <f t="shared" ca="1" si="0"/>
+        <v>369.44</v>
+      </c>
+      <c r="P86">
+        <f t="shared" ca="1" si="1"/>
+        <v>17006</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" ca="1" si="2"/>
+        <v>15228</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ca="1" si="3"/>
+        <v>16505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
         <v>63</v>
       </c>
@@ -2765,8 +3387,24 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="O87">
+        <f t="shared" ca="1" si="0"/>
+        <v>379.43299999999999</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ca="1" si="1"/>
+        <v>16618</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="2"/>
+        <v>14838</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="3"/>
+        <v>16152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -2782,8 +3420,24 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="O88">
+        <f t="shared" ca="1" si="0"/>
+        <v>389.43900000000002</v>
+      </c>
+      <c r="P88">
+        <f t="shared" ca="1" si="1"/>
+        <v>16161</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="2"/>
+        <v>14622</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="3"/>
+        <v>15754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3453,24 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="O89">
+        <f t="shared" ca="1" si="0"/>
+        <v>399.43299999999999</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ca="1" si="1"/>
+        <v>15782</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="2"/>
+        <v>14123</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="3"/>
+        <v>15482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="4" t="s">
         <v>66</v>
       </c>
@@ -2840,8 +3510,24 @@
       <c r="M90" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="O90">
+        <f t="shared" ca="1" si="0"/>
+        <v>409.43599999999998</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ca="1" si="1"/>
+        <v>15501</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="2"/>
+        <v>13731</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="3"/>
+        <v>15112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
         <v>79</v>
       </c>
@@ -2881,8 +3567,24 @@
       <c r="M91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="O91">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.43599999999998</v>
+      </c>
+      <c r="P91">
+        <f t="shared" ca="1" si="1"/>
+        <v>14909</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="2"/>
+        <v>13532</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="3"/>
+        <v>14752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="4" t="s">
         <v>80</v>
       </c>
@@ -2922,8 +3624,24 @@
       <c r="M92" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="O92">
+        <f t="shared" ca="1" si="0"/>
+        <v>429.43900000000002</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="1"/>
+        <v>14609</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="2"/>
+        <v>12956</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="3"/>
+        <v>14367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
         <v>81</v>
       </c>
@@ -2963,8 +3681,24 @@
       <c r="M93" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="O93">
+        <f t="shared" ca="1" si="0"/>
+        <v>439.43599999999998</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="1"/>
+        <v>14394</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="2"/>
+        <v>12804</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="3"/>
+        <v>14133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="4" t="s">
         <v>82</v>
       </c>
@@ -3004,8 +3738,24 @@
       <c r="M94" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="O94">
+        <f t="shared" ca="1" si="0"/>
+        <v>449.43700000000001</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="1"/>
+        <v>14021</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="2"/>
+        <v>12487</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="3"/>
+        <v>13637</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="4" t="s">
         <v>83</v>
       </c>
@@ -3045,8 +3795,24 @@
       <c r="M95" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="O95">
+        <f t="shared" ca="1" si="0"/>
+        <v>459.44099999999997</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="1"/>
+        <v>13483</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="2"/>
+        <v>12231</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="3"/>
+        <v>13444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="4" t="s">
         <v>84</v>
       </c>
@@ -3086,8 +3852,24 @@
       <c r="M96" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="O96">
+        <f t="shared" ca="1" si="0"/>
+        <v>469.43799999999999</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ca="1" si="1"/>
+        <v>13432</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" ca="1" si="2"/>
+        <v>11864</v>
+      </c>
+      <c r="R96">
+        <f t="shared" ca="1" si="3"/>
+        <v>13004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="4" t="s">
         <v>85</v>
       </c>
@@ -3127,8 +3909,24 @@
       <c r="M97" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="O97">
+        <f t="shared" ca="1" si="0"/>
+        <v>479.44400000000002</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ca="1" si="1"/>
+        <v>12977</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" ca="1" si="2"/>
+        <v>11542</v>
+      </c>
+      <c r="R97">
+        <f t="shared" ca="1" si="3"/>
+        <v>12871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="4" t="s">
         <v>86</v>
       </c>
@@ -3168,8 +3966,24 @@
       <c r="M98" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="O98">
+        <f t="shared" ca="1" si="0"/>
+        <v>489.43700000000001</v>
+      </c>
+      <c r="P98">
+        <f t="shared" ca="1" si="1"/>
+        <v>12620</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ca="1" si="2"/>
+        <v>11284</v>
+      </c>
+      <c r="R98">
+        <f t="shared" ca="1" si="3"/>
+        <v>12370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3181,8 +3995,24 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="O99">
+        <f t="shared" ca="1" si="0"/>
+        <v>499.44799999999998</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ca="1" si="1"/>
+        <v>12395</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ca="1" si="2"/>
+        <v>11008</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ca="1" si="3"/>
+        <v>12069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
@@ -3198,8 +4028,24 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="O100">
+        <f t="shared" ca="1" si="0"/>
+        <v>509.44200000000001</v>
+      </c>
+      <c r="P100">
+        <f t="shared" ca="1" si="1"/>
+        <v>12169</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" ca="1" si="2"/>
+        <v>10890</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ca="1" si="3"/>
+        <v>11926</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="4" t="s">
         <v>64</v>
       </c>
@@ -3215,8 +4061,24 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="O101">
+        <f t="shared" ca="1" si="0"/>
+        <v>519.447</v>
+      </c>
+      <c r="P101">
+        <f t="shared" ca="1" si="1"/>
+        <v>11794</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" ca="1" si="2"/>
+        <v>10553</v>
+      </c>
+      <c r="R101">
+        <f t="shared" ca="1" si="3"/>
+        <v>11648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="4" t="s">
         <v>65</v>
       </c>
@@ -3232,8 +4094,24 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="O102">
+        <f t="shared" ca="1" si="0"/>
+        <v>529.447</v>
+      </c>
+      <c r="P102">
+        <f t="shared" ca="1" si="1"/>
+        <v>11804</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" ca="1" si="2"/>
+        <v>10309</v>
+      </c>
+      <c r="R102">
+        <f t="shared" ca="1" si="3"/>
+        <v>11405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="4" t="s">
         <v>66</v>
       </c>
@@ -3273,8 +4151,24 @@
       <c r="M103" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="O103">
+        <f t="shared" ca="1" si="0"/>
+        <v>539.45000000000005</v>
+      </c>
+      <c r="P103">
+        <f t="shared" ca="1" si="1"/>
+        <v>11450</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" ca="1" si="2"/>
+        <v>10037</v>
+      </c>
+      <c r="R103">
+        <f t="shared" ca="1" si="3"/>
+        <v>11287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="4" t="s">
         <v>79</v>
       </c>
@@ -3314,8 +4208,24 @@
       <c r="M104" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="O104">
+        <f t="shared" ca="1" si="0"/>
+        <v>549.44200000000001</v>
+      </c>
+      <c r="P104">
+        <f t="shared" ca="1" si="1"/>
+        <v>11047</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ca="1" si="2"/>
+        <v>9787</v>
+      </c>
+      <c r="R104">
+        <f t="shared" ca="1" si="3"/>
+        <v>10940</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="4" t="s">
         <v>80</v>
       </c>
@@ -3355,8 +4265,24 @@
       <c r="M105" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="O105">
+        <f t="shared" ca="1" si="0"/>
+        <v>559.45299999999997</v>
+      </c>
+      <c r="P105">
+        <f t="shared" ca="1" si="1"/>
+        <v>10830</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ca="1" si="2"/>
+        <v>9650</v>
+      </c>
+      <c r="R105">
+        <f t="shared" ca="1" si="3"/>
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="4" t="s">
         <v>81</v>
       </c>
@@ -3396,8 +4322,24 @@
       <c r="M106" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="O106">
+        <f t="shared" ca="1" si="0"/>
+        <v>569.447</v>
+      </c>
+      <c r="P106">
+        <f t="shared" ca="1" si="1"/>
+        <v>10569</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" ca="1" si="2"/>
+        <v>9592</v>
+      </c>
+      <c r="R106">
+        <f t="shared" ca="1" si="3"/>
+        <v>10524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="4" t="s">
         <v>82</v>
       </c>
@@ -3437,8 +4379,24 @@
       <c r="M107" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="O107">
+        <f t="shared" ca="1" si="0"/>
+        <v>579.45299999999997</v>
+      </c>
+      <c r="P107">
+        <f t="shared" ca="1" si="1"/>
+        <v>10445</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" ca="1" si="2"/>
+        <v>9117</v>
+      </c>
+      <c r="R107">
+        <f t="shared" ca="1" si="3"/>
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="4" t="s">
         <v>83</v>
       </c>
@@ -3478,8 +4436,24 @@
       <c r="M108" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="O108">
+        <f t="shared" ca="1" si="0"/>
+        <v>589.44500000000005</v>
+      </c>
+      <c r="P108">
+        <f t="shared" ca="1" si="1"/>
+        <v>10118</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" ca="1" si="2"/>
+        <v>8925</v>
+      </c>
+      <c r="R108">
+        <f t="shared" ca="1" si="3"/>
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="4" t="s">
         <v>84</v>
       </c>
@@ -3519,8 +4493,24 @@
       <c r="M109" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="O109">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="4" t="s">
         <v>85</v>
       </c>
@@ -3560,8 +4550,24 @@
       <c r="M110" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="O110">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="4" t="s">
         <v>86</v>
       </c>
@@ -3601,8 +4607,24 @@
       <c r="M111" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="O111">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3614,8 +4636,24 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="O112">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="4" t="s">
         <v>63</v>
       </c>
@@ -3631,8 +4669,24 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="O113">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="4" t="s">
         <v>64</v>
       </c>
@@ -3648,8 +4702,24 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="O114">
+        <f t="shared" ref="O114:O177" ca="1" si="4">OFFSET(B$35,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" ref="P114:P177" ca="1" si="5">OFFSET(I$40,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" ref="Q114:Q177" ca="1" si="6">OFFSET(J$40,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" ref="R114:R177" ca="1" si="7">OFFSET(K$40,ROW(A66)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="4" t="s">
         <v>65</v>
       </c>
@@ -3665,8 +4735,24 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="O115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="4" t="s">
         <v>66</v>
       </c>
@@ -3706,8 +4792,24 @@
       <c r="M116" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="O116">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="4" t="s">
         <v>79</v>
       </c>
@@ -3747,8 +4849,24 @@
       <c r="M117" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="O117">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="4" t="s">
         <v>80</v>
       </c>
@@ -3788,8 +4906,24 @@
       <c r="M118" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="O118">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="4" t="s">
         <v>81</v>
       </c>
@@ -3829,8 +4963,24 @@
       <c r="M119" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="O119">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="4" t="s">
         <v>82</v>
       </c>
@@ -3870,8 +5020,24 @@
       <c r="M120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="O120">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
         <v>83</v>
       </c>
@@ -3911,8 +5077,24 @@
       <c r="M121" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="O121">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
         <v>84</v>
       </c>
@@ -3952,8 +5134,24 @@
       <c r="M122" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="O122">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>85</v>
       </c>
@@ -3993,8 +5191,24 @@
       <c r="M123" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="O123">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
         <v>86</v>
       </c>
@@ -4034,8 +5248,24 @@
       <c r="M124" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="O124">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4047,8 +5277,24 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="O125">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
         <v>63</v>
       </c>
@@ -4064,8 +5310,24 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="O126">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
         <v>64</v>
       </c>
@@ -4081,8 +5343,24 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="O127">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
         <v>65</v>
       </c>
@@ -4098,8 +5376,24 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="O128">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="4" t="s">
         <v>66</v>
       </c>
@@ -4139,8 +5433,24 @@
       <c r="M129" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="O129">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="4" t="s">
         <v>79</v>
       </c>
@@ -4180,8 +5490,24 @@
       <c r="M130" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="O130">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="4" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +5547,24 @@
       <c r="M131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="O131">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="4" t="s">
         <v>81</v>
       </c>
@@ -4262,8 +5604,24 @@
       <c r="M132" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="O132">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="4" t="s">
         <v>82</v>
       </c>
@@ -4303,8 +5661,24 @@
       <c r="M133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="O133">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4344,8 +5718,24 @@
       <c r="M134" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="O134">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="4" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +5775,24 @@
       <c r="M135" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="O135">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="4" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +5832,24 @@
       <c r="M136" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="O136">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="4" t="s">
         <v>86</v>
       </c>
@@ -4467,8 +5889,24 @@
       <c r="M137" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="O137">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4480,8 +5918,24 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="O138">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="4" t="s">
         <v>63</v>
       </c>
@@ -4497,8 +5951,24 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="O139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="4" t="s">
         <v>64</v>
       </c>
@@ -4514,8 +5984,24 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="O140">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="4" t="s">
         <v>65</v>
       </c>
@@ -4531,8 +6017,24 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="O141">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="4" t="s">
         <v>66</v>
       </c>
@@ -4572,8 +6074,24 @@
       <c r="M142" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="O142">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="4" t="s">
         <v>79</v>
       </c>
@@ -4613,8 +6131,24 @@
       <c r="M143" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="O143">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="4" t="s">
         <v>80</v>
       </c>
@@ -4654,8 +6188,24 @@
       <c r="M144" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="O144">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
         <v>81</v>
       </c>
@@ -4695,8 +6245,24 @@
       <c r="M145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="O145">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
         <v>82</v>
       </c>
@@ -4736,8 +6302,24 @@
       <c r="M146" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="O146">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
         <v>83</v>
       </c>
@@ -4777,8 +6359,24 @@
       <c r="M147" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="O147">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
         <v>84</v>
       </c>
@@ -4818,8 +6416,24 @@
       <c r="M148" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="O148">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>85</v>
       </c>
@@ -4859,8 +6473,24 @@
       <c r="M149" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="O149">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
         <v>86</v>
       </c>
@@ -4900,8 +6530,24 @@
       <c r="M150" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="O150">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4913,8 +6559,24 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="O151">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
         <v>63</v>
       </c>
@@ -4930,8 +6592,24 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="O152">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
         <v>64</v>
       </c>
@@ -4947,8 +6625,24 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="O153">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
         <v>65</v>
       </c>
@@ -4964,8 +6658,24 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="O154">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
         <v>66</v>
       </c>
@@ -5005,8 +6715,24 @@
       <c r="M155" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="O155">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
         <v>79</v>
       </c>
@@ -5046,8 +6772,24 @@
       <c r="M156" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="O156">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
         <v>80</v>
       </c>
@@ -5087,8 +6829,24 @@
       <c r="M157" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="O157">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
         <v>81</v>
       </c>
@@ -5128,8 +6886,24 @@
       <c r="M158" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="O158">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
         <v>82</v>
       </c>
@@ -5169,8 +6943,24 @@
       <c r="M159" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="O159">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
         <v>83</v>
       </c>
@@ -5210,8 +7000,24 @@
       <c r="M160" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="O160">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
         <v>84</v>
       </c>
@@ -5251,8 +7057,24 @@
       <c r="M161" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="O161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
         <v>85</v>
       </c>
@@ -5292,8 +7114,24 @@
       <c r="M162" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="O162">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
         <v>86</v>
       </c>
@@ -5333,8 +7171,24 @@
       <c r="M163" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="O163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5346,8 +7200,24 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="O164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
         <v>63</v>
       </c>
@@ -5363,8 +7233,24 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="O165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
         <v>64</v>
       </c>
@@ -5380,8 +7266,24 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="O166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
         <v>65</v>
       </c>
@@ -5397,8 +7299,24 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="O167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
         <v>66</v>
       </c>
@@ -5438,8 +7356,24 @@
       <c r="M168" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="O168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
         <v>79</v>
       </c>
@@ -5479,8 +7413,24 @@
       <c r="M169" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="O169">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
         <v>80</v>
       </c>
@@ -5520,8 +7470,24 @@
       <c r="M170" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="O170">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
         <v>81</v>
       </c>
@@ -5561,8 +7527,24 @@
       <c r="M171" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="O171">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
         <v>82</v>
       </c>
@@ -5602,8 +7584,24 @@
       <c r="M172" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="O172">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
         <v>83</v>
       </c>
@@ -5643,8 +7641,24 @@
       <c r="M173" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="O173">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
         <v>84</v>
       </c>
@@ -5684,8 +7698,24 @@
       <c r="M174" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="O174">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
         <v>85</v>
       </c>
@@ -5725,8 +7755,24 @@
       <c r="M175" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="O175">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
         <v>86</v>
       </c>
@@ -5766,8 +7812,24 @@
       <c r="M176" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="O176">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5779,8 +7841,24 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="O177">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="4" t="s">
         <v>63</v>
       </c>
@@ -5796,8 +7874,24 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="O178">
+        <f t="shared" ref="O178:O241" ca="1" si="8">OFFSET(B$35,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" ref="P178:P241" ca="1" si="9">OFFSET(I$40,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" ref="Q178:Q241" ca="1" si="10">OFFSET(J$40,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <f t="shared" ref="R178:R241" ca="1" si="11">OFFSET(K$40,ROW(A130)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="4" t="s">
         <v>64</v>
       </c>
@@ -5813,8 +7907,24 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="O179">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="4" t="s">
         <v>65</v>
       </c>
@@ -5830,8 +7940,24 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="O180">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="4" t="s">
         <v>66</v>
       </c>
@@ -5871,8 +7997,24 @@
       <c r="M181" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="O181">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
         <v>79</v>
       </c>
@@ -5912,8 +8054,24 @@
       <c r="M182" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="O182">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="4" t="s">
         <v>80</v>
       </c>
@@ -5953,8 +8111,24 @@
       <c r="M183" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="O183">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="4" t="s">
         <v>81</v>
       </c>
@@ -5994,8 +8168,24 @@
       <c r="M184" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="O184">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="4" t="s">
         <v>82</v>
       </c>
@@ -6035,8 +8225,24 @@
       <c r="M185" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="O185">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="4" t="s">
         <v>83</v>
       </c>
@@ -6076,8 +8282,24 @@
       <c r="M186" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="O186">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
         <v>84</v>
       </c>
@@ -6117,8 +8339,24 @@
       <c r="M187" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="O187">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="4" t="s">
         <v>85</v>
       </c>
@@ -6158,8 +8396,24 @@
       <c r="M188" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="O188">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="4" t="s">
         <v>86</v>
       </c>
@@ -6199,8 +8453,24 @@
       <c r="M189" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="O189">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6212,8 +8482,24 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="O190">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="4" t="s">
         <v>63</v>
       </c>
@@ -6229,8 +8515,24 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="O191">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="4" t="s">
         <v>64</v>
       </c>
@@ -6246,8 +8548,24 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="O192">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
         <v>65</v>
       </c>
@@ -6263,8 +8581,24 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="O193">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
         <v>66</v>
       </c>
@@ -6304,8 +8638,24 @@
       <c r="M194" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="O194">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
         <v>79</v>
       </c>
@@ -6345,8 +8695,24 @@
       <c r="M195" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="O195">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
         <v>80</v>
       </c>
@@ -6386,8 +8752,24 @@
       <c r="M196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="O196">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
         <v>81</v>
       </c>
@@ -6427,8 +8809,24 @@
       <c r="M197" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="O197">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
         <v>82</v>
       </c>
@@ -6468,8 +8866,24 @@
       <c r="M198" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="O198">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
         <v>83</v>
       </c>
@@ -6509,8 +8923,24 @@
       <c r="M199" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="O199">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
         <v>84</v>
       </c>
@@ -6550,8 +8980,24 @@
       <c r="M200" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="O200">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
@@ -6591,8 +9037,24 @@
       <c r="M201" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="O201">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +9094,24 @@
       <c r="M202" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="O202">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6645,8 +9123,24 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="O203">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
         <v>63</v>
       </c>
@@ -6662,8 +9156,24 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="O204">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
         <v>64</v>
       </c>
@@ -6679,8 +9189,24 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="O205">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
         <v>65</v>
       </c>
@@ -6696,8 +9222,24 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="O206">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
         <v>66</v>
       </c>
@@ -6737,8 +9279,24 @@
       <c r="M207" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="O207">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
         <v>79</v>
       </c>
@@ -6778,8 +9336,24 @@
       <c r="M208" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="O208">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" s="4" t="s">
         <v>80</v>
       </c>
@@ -6819,8 +9393,24 @@
       <c r="M209" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="O209">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" s="4" t="s">
         <v>81</v>
       </c>
@@ -6860,8 +9450,24 @@
       <c r="M210" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="O210">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="4" t="s">
         <v>82</v>
       </c>
@@ -6901,8 +9507,24 @@
       <c r="M211" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="O211">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="4" t="s">
         <v>83</v>
       </c>
@@ -6942,8 +9564,24 @@
       <c r="M212" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="O212">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="4" t="s">
         <v>84</v>
       </c>
@@ -6983,8 +9621,24 @@
       <c r="M213" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="O213">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="4" t="s">
         <v>85</v>
       </c>
@@ -7024,8 +9678,24 @@
       <c r="M214" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="O214">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="4" t="s">
         <v>86</v>
       </c>
@@ -7065,8 +9735,24 @@
       <c r="M215" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="O215">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7078,8 +9764,24 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="O216">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="4" t="s">
         <v>63</v>
       </c>
@@ -7095,8 +9797,24 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="O217">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="4" t="s">
         <v>64</v>
       </c>
@@ -7112,8 +9830,24 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="O218">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="4" t="s">
         <v>65</v>
       </c>
@@ -7129,8 +9863,24 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="O219">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="4" t="s">
         <v>66</v>
       </c>
@@ -7170,8 +9920,24 @@
       <c r="M220" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="O220">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="4" t="s">
         <v>79</v>
       </c>
@@ -7211,8 +9977,24 @@
       <c r="M221" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="O221">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="4" t="s">
         <v>80</v>
       </c>
@@ -7252,8 +10034,24 @@
       <c r="M222" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="O222">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="4" t="s">
         <v>81</v>
       </c>
@@ -7293,8 +10091,24 @@
       <c r="M223" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="O223">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="4" t="s">
         <v>82</v>
       </c>
@@ -7334,8 +10148,24 @@
       <c r="M224" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="O224">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="4" t="s">
         <v>83</v>
       </c>
@@ -7375,8 +10205,24 @@
       <c r="M225" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="O225">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="4" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +10262,24 @@
       <c r="M226" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="O226">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="4" t="s">
         <v>85</v>
       </c>
@@ -7457,8 +10319,24 @@
       <c r="M227" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="O227">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="4" t="s">
         <v>86</v>
       </c>
@@ -7498,8 +10376,24 @@
       <c r="M228" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="O228">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7511,8 +10405,24 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="O229">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="4" t="s">
         <v>63</v>
       </c>
@@ -7528,8 +10438,24 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="O230">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="4" t="s">
         <v>64</v>
       </c>
@@ -7545,8 +10471,24 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="O231">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" s="4" t="s">
         <v>65</v>
       </c>
@@ -7562,8 +10504,24 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="O232">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" s="4" t="s">
         <v>66</v>
       </c>
@@ -7603,8 +10561,24 @@
       <c r="M233" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="O233">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" s="4" t="s">
         <v>79</v>
       </c>
@@ -7644,8 +10618,24 @@
       <c r="M234" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="O234">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" s="4" t="s">
         <v>80</v>
       </c>
@@ -7685,8 +10675,24 @@
       <c r="M235" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="O235">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" s="4" t="s">
         <v>81</v>
       </c>
@@ -7726,8 +10732,24 @@
       <c r="M236" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="O236">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="4" t="s">
         <v>82</v>
       </c>
@@ -7767,8 +10789,24 @@
       <c r="M237" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="O237">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="4" t="s">
         <v>83</v>
       </c>
@@ -7808,8 +10846,24 @@
       <c r="M238" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="O238">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="4" t="s">
         <v>84</v>
       </c>
@@ -7849,8 +10903,24 @@
       <c r="M239" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="O239">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="4" t="s">
         <v>85</v>
       </c>
@@ -7890,8 +10960,24 @@
       <c r="M240" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="O240">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="4" t="s">
         <v>86</v>
       </c>
@@ -7931,8 +11017,24 @@
       <c r="M241" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="O241">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7944,8 +11046,24 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="O242">
+        <f t="shared" ref="O242:O305" ca="1" si="12">OFFSET(B$35,ROW(A194)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <f t="shared" ref="P242:P305" ca="1" si="13">OFFSET(I$40,ROW(A194)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <f t="shared" ref="Q242:Q305" ca="1" si="14">OFFSET(J$40,ROW(A194)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <f t="shared" ref="R242:R305" ca="1" si="15">OFFSET(K$40,ROW(A194)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="4" t="s">
         <v>63</v>
       </c>
@@ -7961,8 +11079,24 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="O243">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="4" t="s">
         <v>64</v>
       </c>
@@ -7978,8 +11112,24 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="O244">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="4" t="s">
         <v>65</v>
       </c>
@@ -7995,8 +11145,24 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="O245">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="4" t="s">
         <v>66</v>
       </c>
@@ -8036,8 +11202,24 @@
       <c r="M246" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="O246">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" s="4" t="s">
         <v>79</v>
       </c>
@@ -8077,8 +11259,24 @@
       <c r="M247" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="O247">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="4" t="s">
         <v>80</v>
       </c>
@@ -8118,8 +11316,24 @@
       <c r="M248" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="O248">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="4" t="s">
         <v>81</v>
       </c>
@@ -8159,8 +11373,24 @@
       <c r="M249" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="O249">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" s="4" t="s">
         <v>82</v>
       </c>
@@ -8200,8 +11430,24 @@
       <c r="M250" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="O250">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" s="4" t="s">
         <v>83</v>
       </c>
@@ -8241,8 +11487,24 @@
       <c r="M251" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="O251">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" s="4" t="s">
         <v>84</v>
       </c>
@@ -8282,8 +11544,24 @@
       <c r="M252" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="O252">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="4" t="s">
         <v>85</v>
       </c>
@@ -8323,8 +11601,24 @@
       <c r="M253" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="O253">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="4" t="s">
         <v>86</v>
       </c>
@@ -8364,8 +11658,24 @@
       <c r="M254" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="O254">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8377,8 +11687,24 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="O255">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="4" t="s">
         <v>63</v>
       </c>
@@ -8394,8 +11720,24 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="O256">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="4" t="s">
         <v>64</v>
       </c>
@@ -8411,8 +11753,24 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="O257">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="4" t="s">
         <v>65</v>
       </c>
@@ -8428,8 +11786,24 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="O258">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="4" t="s">
         <v>66</v>
       </c>
@@ -8469,8 +11843,24 @@
       <c r="M259" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="O259">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="4" t="s">
         <v>79</v>
       </c>
@@ -8510,8 +11900,24 @@
       <c r="M260" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="O260">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="4" t="s">
         <v>80</v>
       </c>
@@ -8551,8 +11957,24 @@
       <c r="M261" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="O261">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="4" t="s">
         <v>81</v>
       </c>
@@ -8592,8 +12014,24 @@
       <c r="M262" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="O262">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="4" t="s">
         <v>82</v>
       </c>
@@ -8633,8 +12071,24 @@
       <c r="M263" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="O263">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="4" t="s">
         <v>83</v>
       </c>
@@ -8674,8 +12128,24 @@
       <c r="M264" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="O264">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="4" t="s">
         <v>84</v>
       </c>
@@ -8715,8 +12185,24 @@
       <c r="M265" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="O265">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="4" t="s">
         <v>85</v>
       </c>
@@ -8756,8 +12242,24 @@
       <c r="M266" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="O266">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="4" t="s">
         <v>86</v>
       </c>
@@ -8797,8 +12299,24 @@
       <c r="M267" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="O267">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8810,8 +12328,24 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="O268">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" s="4" t="s">
         <v>63</v>
       </c>
@@ -8827,8 +12361,24 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="O269">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270" s="4" t="s">
         <v>64</v>
       </c>
@@ -8844,8 +12394,24 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="O270">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271" s="4" t="s">
         <v>65</v>
       </c>
@@ -8861,8 +12427,24 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="O271">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272" s="4" t="s">
         <v>66</v>
       </c>
@@ -8902,8 +12484,24 @@
       <c r="M272" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="O272">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273" s="4" t="s">
         <v>79</v>
       </c>
@@ -8943,8 +12541,24 @@
       <c r="M273" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="O273">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274" s="4" t="s">
         <v>80</v>
       </c>
@@ -8984,8 +12598,24 @@
       <c r="M274" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="O274">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275" s="4" t="s">
         <v>81</v>
       </c>
@@ -9025,8 +12655,24 @@
       <c r="M275" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="O275">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276" s="4" t="s">
         <v>82</v>
       </c>
@@ -9066,8 +12712,24 @@
       <c r="M276" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="O276">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277" s="4" t="s">
         <v>83</v>
       </c>
@@ -9107,8 +12769,24 @@
       <c r="M277" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="O277">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278" s="4" t="s">
         <v>84</v>
       </c>
@@ -9148,8 +12826,24 @@
       <c r="M278" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="O278">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" s="4" t="s">
         <v>85</v>
       </c>
@@ -9189,8 +12883,24 @@
       <c r="M279" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="O279">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280" s="4" t="s">
         <v>86</v>
       </c>
@@ -9230,8 +12940,24 @@
       <c r="M280" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="O280">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9243,8 +12969,24 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="O281">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282" s="4" t="s">
         <v>63</v>
       </c>
@@ -9260,8 +13002,24 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="O282">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q282">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" s="4" t="s">
         <v>64</v>
       </c>
@@ -9277,8 +13035,24 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="O283">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q283">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" s="4" t="s">
         <v>65</v>
       </c>
@@ -9294,8 +13068,24 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="O284">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q284">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" s="4" t="s">
         <v>66</v>
       </c>
@@ -9335,8 +13125,24 @@
       <c r="M285" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="O285">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q285">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286" s="4" t="s">
         <v>79</v>
       </c>
@@ -9376,8 +13182,24 @@
       <c r="M286" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="O286">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q286">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287" s="4" t="s">
         <v>80</v>
       </c>
@@ -9417,8 +13239,24 @@
       <c r="M287" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="O287">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288" s="4" t="s">
         <v>81</v>
       </c>
@@ -9458,8 +13296,24 @@
       <c r="M288" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="O288">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q288">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289" s="4" t="s">
         <v>82</v>
       </c>
@@ -9499,8 +13353,24 @@
       <c r="M289" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="O289">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q289">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" s="4" t="s">
         <v>83</v>
       </c>
@@ -9540,8 +13410,24 @@
       <c r="M290" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="O290">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" s="4" t="s">
         <v>84</v>
       </c>
@@ -9581,8 +13467,24 @@
       <c r="M291" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="O291">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" s="4" t="s">
         <v>85</v>
       </c>
@@ -9622,8 +13524,24 @@
       <c r="M292" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="O292">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" s="4" t="s">
         <v>86</v>
       </c>
@@ -9663,8 +13581,24 @@
       <c r="M293" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="O293">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q293">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9676,8 +13610,24 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="O294">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295" s="4" t="s">
         <v>63</v>
       </c>
@@ -9693,8 +13643,24 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="O295">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296" s="4" t="s">
         <v>64</v>
       </c>
@@ -9710,8 +13676,24 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="O296">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297" s="4" t="s">
         <v>65</v>
       </c>
@@ -9727,8 +13709,24 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="O297">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298" s="4" t="s">
         <v>66</v>
       </c>
@@ -9768,8 +13766,24 @@
       <c r="M298" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="O298">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
       <c r="A299" s="4" t="s">
         <v>79</v>
       </c>
@@ -9809,8 +13823,24 @@
       <c r="M299" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="O299">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" s="4" t="s">
         <v>80</v>
       </c>
@@ -9850,8 +13880,24 @@
       <c r="M300" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="O300">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301" s="4" t="s">
         <v>81</v>
       </c>
@@ -9891,8 +13937,24 @@
       <c r="M301" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="O301">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" s="4" t="s">
         <v>82</v>
       </c>
@@ -9932,8 +13994,24 @@
       <c r="M302" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="O302">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303" s="4" t="s">
         <v>83</v>
       </c>
@@ -9973,8 +14051,24 @@
       <c r="M303" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="O303">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304" s="4" t="s">
         <v>84</v>
       </c>
@@ -10014,8 +14108,24 @@
       <c r="M304" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="O304">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305" s="4" t="s">
         <v>85</v>
       </c>
@@ -10055,8 +14165,24 @@
       <c r="M305" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="O305">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" s="4" t="s">
         <v>86</v>
       </c>
@@ -10096,8 +14222,24 @@
       <c r="M306" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="O306">
+        <f t="shared" ref="O306:O369" ca="1" si="16">OFFSET(B$35,ROW(A258)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <f t="shared" ref="P306:P369" ca="1" si="17">OFFSET(I$40,ROW(A258)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <f t="shared" ref="Q306:Q369" ca="1" si="18">OFFSET(J$40,ROW(A258)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <f t="shared" ref="R306:R369" ca="1" si="19">OFFSET(K$40,ROW(A258)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10109,8 +14251,24 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="O307">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" s="4" t="s">
         <v>63</v>
       </c>
@@ -10126,8 +14284,24 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="O308">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q308">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309" s="4" t="s">
         <v>64</v>
       </c>
@@ -10143,8 +14317,24 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="O309">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P309">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q309">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18">
       <c r="A310" s="4" t="s">
         <v>65</v>
       </c>
@@ -10160,8 +14350,24 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="O310">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18">
       <c r="A311" s="4" t="s">
         <v>66</v>
       </c>
@@ -10201,8 +14407,24 @@
       <c r="M311" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="O311">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312" s="4" t="s">
         <v>79</v>
       </c>
@@ -10242,8 +14464,24 @@
       <c r="M312" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="O312">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P312">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q312">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313" s="4" t="s">
         <v>80</v>
       </c>
@@ -10283,8 +14521,24 @@
       <c r="M313" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="O313">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P313">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R313">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18">
       <c r="A314" s="4" t="s">
         <v>81</v>
       </c>
@@ -10324,8 +14578,24 @@
       <c r="M314" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="O314">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P314">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18">
       <c r="A315" s="4" t="s">
         <v>82</v>
       </c>
@@ -10365,8 +14635,24 @@
       <c r="M315" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="O315">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q315">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316" s="4" t="s">
         <v>83</v>
       </c>
@@ -10406,8 +14692,24 @@
       <c r="M316" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="O316">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q316">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18">
       <c r="A317" s="4" t="s">
         <v>84</v>
       </c>
@@ -10447,8 +14749,24 @@
       <c r="M317" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="O317">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P317">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q317">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318" s="4" t="s">
         <v>85</v>
       </c>
@@ -10488,8 +14806,24 @@
       <c r="M318" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="O318">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18">
       <c r="A319" s="4" t="s">
         <v>86</v>
       </c>
@@ -10529,8 +14863,24 @@
       <c r="M319" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="O319">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P319">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10542,8 +14892,24 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="O320">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q320">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321" s="4" t="s">
         <v>63</v>
       </c>
@@ -10559,8 +14925,24 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="O321">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q321">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
       <c r="A322" s="4" t="s">
         <v>64</v>
       </c>
@@ -10576,8 +14958,24 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
-    </row>
-    <row r="323" spans="1:13">
+      <c r="O322">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q322">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18">
       <c r="A323" s="4" t="s">
         <v>65</v>
       </c>
@@ -10593,8 +14991,24 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="O323">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18">
       <c r="A324" s="4" t="s">
         <v>66</v>
       </c>
@@ -10634,8 +15048,24 @@
       <c r="M324" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="O324">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18">
       <c r="A325" s="4" t="s">
         <v>79</v>
       </c>
@@ -10675,8 +15105,24 @@
       <c r="M325" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="O325">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
       <c r="A326" s="4" t="s">
         <v>80</v>
       </c>
@@ -10716,8 +15162,24 @@
       <c r="M326" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="O326">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
       <c r="A327" s="4" t="s">
         <v>81</v>
       </c>
@@ -10757,8 +15219,24 @@
       <c r="M327" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="O327">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P327">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q327">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
       <c r="A328" s="4" t="s">
         <v>82</v>
       </c>
@@ -10798,8 +15276,24 @@
       <c r="M328" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="O328">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q328">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18">
       <c r="A329" s="4" t="s">
         <v>83</v>
       </c>
@@ -10839,8 +15333,24 @@
       <c r="M329" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="O329">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P329">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18">
       <c r="A330" s="4" t="s">
         <v>84</v>
       </c>
@@ -10880,8 +15390,24 @@
       <c r="M330" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="O330">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P330">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q330">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
       <c r="A331" s="4" t="s">
         <v>85</v>
       </c>
@@ -10921,8 +15447,24 @@
       <c r="M331" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="O331">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P331">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q331">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18">
       <c r="A332" s="4" t="s">
         <v>86</v>
       </c>
@@ -10962,8 +15504,24 @@
       <c r="M332" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="O332">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q332">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10975,8 +15533,24 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="O333">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P333">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q333">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18">
       <c r="A334" s="4" t="s">
         <v>63</v>
       </c>
@@ -10992,8 +15566,24 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="O334">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q334">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
       <c r="A335" s="4" t="s">
         <v>64</v>
       </c>
@@ -11009,8 +15599,24 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
-    </row>
-    <row r="336" spans="1:13">
+      <c r="O335">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P335">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q335">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18">
       <c r="A336" s="4" t="s">
         <v>65</v>
       </c>
@@ -11026,8 +15632,24 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
-    </row>
-    <row r="337" spans="1:13">
+      <c r="O336">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q336">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18">
       <c r="A337" s="4" t="s">
         <v>66</v>
       </c>
@@ -11067,8 +15689,24 @@
       <c r="M337" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="338" spans="1:13">
+      <c r="O337">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
       <c r="A338" s="4" t="s">
         <v>79</v>
       </c>
@@ -11108,8 +15746,24 @@
       <c r="M338" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:13">
+      <c r="O338">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
       <c r="A339" s="4" t="s">
         <v>80</v>
       </c>
@@ -11149,8 +15803,24 @@
       <c r="M339" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:13">
+      <c r="O339">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q339">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18">
       <c r="A340" s="4" t="s">
         <v>81</v>
       </c>
@@ -11190,8 +15860,24 @@
       <c r="M340" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:13">
+      <c r="O340">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P340">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q340">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R340">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
       <c r="A341" s="4" t="s">
         <v>82</v>
       </c>
@@ -11231,8 +15917,24 @@
       <c r="M341" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:13">
+      <c r="O341">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P341">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q341">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R341">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
       <c r="A342" s="4" t="s">
         <v>83</v>
       </c>
@@ -11272,8 +15974,24 @@
       <c r="M342" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:13">
+      <c r="O342">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P342">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q342">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
       <c r="A343" s="4" t="s">
         <v>84</v>
       </c>
@@ -11313,8 +16031,24 @@
       <c r="M343" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:13">
+      <c r="O343">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P343">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q343">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18">
       <c r="A344" s="4" t="s">
         <v>85</v>
       </c>
@@ -11354,8 +16088,24 @@
       <c r="M344" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:13">
+      <c r="O344">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P344">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q344">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18">
       <c r="A345" s="4" t="s">
         <v>86</v>
       </c>
@@ -11395,8 +16145,24 @@
       <c r="M345" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:13">
+      <c r="O345">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q345">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R345">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11408,8 +16174,24 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
-    </row>
-    <row r="347" spans="1:13">
+      <c r="O346">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P346">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q346">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R346">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18">
       <c r="A347" s="4" t="s">
         <v>63</v>
       </c>
@@ -11425,8 +16207,24 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
-    </row>
-    <row r="348" spans="1:13">
+      <c r="O347">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18">
       <c r="A348" s="4" t="s">
         <v>64</v>
       </c>
@@ -11442,8 +16240,24 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
-    </row>
-    <row r="349" spans="1:13">
+      <c r="O348">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P348">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R348">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18">
       <c r="A349" s="4" t="s">
         <v>65</v>
       </c>
@@ -11459,8 +16273,24 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
-    </row>
-    <row r="350" spans="1:13">
+      <c r="O349">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q349">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18">
       <c r="A350" s="4" t="s">
         <v>66</v>
       </c>
@@ -11500,8 +16330,24 @@
       <c r="M350" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="351" spans="1:13">
+      <c r="O350">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q350">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18">
       <c r="A351" s="4" t="s">
         <v>79</v>
       </c>
@@ -11541,8 +16387,24 @@
       <c r="M351" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:13">
+      <c r="O351">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P351">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18">
       <c r="A352" s="4" t="s">
         <v>80</v>
       </c>
@@ -11582,8 +16444,24 @@
       <c r="M352" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:13">
+      <c r="O352">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18">
       <c r="A353" s="4" t="s">
         <v>81</v>
       </c>
@@ -11623,8 +16501,24 @@
       <c r="M353" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:13">
+      <c r="O353">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18">
       <c r="A354" s="4" t="s">
         <v>82</v>
       </c>
@@ -11664,8 +16558,24 @@
       <c r="M354" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:13">
+      <c r="O354">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18">
       <c r="A355" s="4" t="s">
         <v>83</v>
       </c>
@@ -11705,8 +16615,24 @@
       <c r="M355" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:13">
+      <c r="O355">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q355">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18">
       <c r="A356" s="4" t="s">
         <v>84</v>
       </c>
@@ -11746,8 +16672,24 @@
       <c r="M356" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:13">
+      <c r="O356">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q356">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18">
       <c r="A357" s="4" t="s">
         <v>85</v>
       </c>
@@ -11787,8 +16729,24 @@
       <c r="M357" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:13">
+      <c r="O357">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18">
       <c r="A358" s="4" t="s">
         <v>86</v>
       </c>
@@ -11828,8 +16786,24 @@
       <c r="M358" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:13">
+      <c r="O358">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11841,8 +16815,24 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
-    </row>
-    <row r="360" spans="1:13">
+      <c r="O359">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18">
       <c r="A360" s="4" t="s">
         <v>63</v>
       </c>
@@ -11858,8 +16848,24 @@
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
-    </row>
-    <row r="361" spans="1:13">
+      <c r="O360">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P360">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q360">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18">
       <c r="A361" s="4" t="s">
         <v>64</v>
       </c>
@@ -11875,8 +16881,24 @@
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
-    </row>
-    <row r="362" spans="1:13">
+      <c r="O361">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q361">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R361">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18">
       <c r="A362" s="4" t="s">
         <v>65</v>
       </c>
@@ -11892,8 +16914,24 @@
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
-    </row>
-    <row r="363" spans="1:13">
+      <c r="O362">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R362">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18">
       <c r="A363" s="4" t="s">
         <v>66</v>
       </c>
@@ -11933,8 +16971,24 @@
       <c r="M363" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="364" spans="1:13">
+      <c r="O363">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P363">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q363">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18">
       <c r="A364" s="4" t="s">
         <v>79</v>
       </c>
@@ -11974,8 +17028,24 @@
       <c r="M364" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:13">
+      <c r="O364">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P364">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q364">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18">
       <c r="A365" s="4" t="s">
         <v>80</v>
       </c>
@@ -12015,8 +17085,24 @@
       <c r="M365" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:13">
+      <c r="O365">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P365">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q365">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18">
       <c r="A366" s="4" t="s">
         <v>81</v>
       </c>
@@ -12056,8 +17142,24 @@
       <c r="M366" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:13">
+      <c r="O366">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P366">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18">
       <c r="A367" s="4" t="s">
         <v>82</v>
       </c>
@@ -12097,8 +17199,24 @@
       <c r="M367" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:13">
+      <c r="O367">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P367">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18">
       <c r="A368" s="4" t="s">
         <v>83</v>
       </c>
@@ -12138,8 +17256,24 @@
       <c r="M368" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:13">
+      <c r="O368">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P368">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18">
       <c r="A369" s="4" t="s">
         <v>84</v>
       </c>
@@ -12179,8 +17313,24 @@
       <c r="M369" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:13">
+      <c r="O369">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P369">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R369">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18">
       <c r="A370" s="4" t="s">
         <v>85</v>
       </c>
@@ -12220,8 +17370,24 @@
       <c r="M370" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:13">
+      <c r="O370">
+        <f t="shared" ref="O370:O388" ca="1" si="20">OFFSET(B$35,ROW(A322)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P370">
+        <f t="shared" ref="P370:P388" ca="1" si="21">OFFSET(I$40,ROW(A322)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <f t="shared" ref="Q370:Q388" ca="1" si="22">OFFSET(J$40,ROW(A322)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R370">
+        <f t="shared" ref="R370:R388" ca="1" si="23">OFFSET(K$40,ROW(A322)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18">
       <c r="A371" s="4" t="s">
         <v>86</v>
       </c>
@@ -12261,8 +17427,24 @@
       <c r="M371" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:13">
+      <c r="O371">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P371">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q371">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R371">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -12274,8 +17456,24 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
-    </row>
-    <row r="373" spans="1:13">
+      <c r="O372">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18">
       <c r="A373" s="4" t="s">
         <v>63</v>
       </c>
@@ -12291,8 +17489,24 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
-    </row>
-    <row r="374" spans="1:13">
+      <c r="O373">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P373">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q373">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R373">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18">
       <c r="A374" s="4" t="s">
         <v>64</v>
       </c>
@@ -12308,8 +17522,24 @@
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
-    </row>
-    <row r="375" spans="1:13">
+      <c r="O374">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P374">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R374">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18">
       <c r="A375" s="4" t="s">
         <v>65</v>
       </c>
@@ -12325,8 +17555,24 @@
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
-    </row>
-    <row r="376" spans="1:13">
+      <c r="O375">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P375">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q375">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18">
       <c r="A376" s="4" t="s">
         <v>66</v>
       </c>
@@ -12366,8 +17612,24 @@
       <c r="M376" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="377" spans="1:13">
+      <c r="O376">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P376">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18">
       <c r="A377" s="4" t="s">
         <v>79</v>
       </c>
@@ -12407,8 +17669,24 @@
       <c r="M377" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:13">
+      <c r="O377">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P377">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q377">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R377">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18">
       <c r="A378" s="4" t="s">
         <v>80</v>
       </c>
@@ -12448,8 +17726,24 @@
       <c r="M378" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:13">
+      <c r="O378">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P378">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R378">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18">
       <c r="A379" s="4" t="s">
         <v>81</v>
       </c>
@@ -12489,8 +17783,24 @@
       <c r="M379" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:13">
+      <c r="O379">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P379">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18">
       <c r="A380" s="4" t="s">
         <v>82</v>
       </c>
@@ -12530,8 +17840,24 @@
       <c r="M380" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:13">
+      <c r="O380">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P380">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q380">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18">
       <c r="A381" s="4" t="s">
         <v>83</v>
       </c>
@@ -12571,8 +17897,24 @@
       <c r="M381" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:13">
+      <c r="O381">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P381">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q381">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R381">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18">
       <c r="A382" s="4" t="s">
         <v>84</v>
       </c>
@@ -12612,8 +17954,24 @@
       <c r="M382" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:13">
+      <c r="O382">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P382">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R382">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18">
       <c r="A383" s="4" t="s">
         <v>85</v>
       </c>
@@ -12653,8 +18011,24 @@
       <c r="M383" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:13">
+      <c r="O383">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P383">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q383">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18">
       <c r="A384" s="4" t="s">
         <v>86</v>
       </c>
@@ -12694,8 +18068,24 @@
       <c r="M384" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:13">
+      <c r="O384">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P384">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q384">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R384">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12707,8 +18097,24 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
-    </row>
-    <row r="386" spans="1:13">
+      <c r="O385">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P385">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q385">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R385">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18">
       <c r="A386" s="4" t="s">
         <v>63</v>
       </c>
@@ -12724,8 +18130,24 @@
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
-    </row>
-    <row r="387" spans="1:13">
+      <c r="O386">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P386">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q386">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R386">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18">
       <c r="A387" s="4" t="s">
         <v>64</v>
       </c>
@@ -12741,8 +18163,24 @@
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
-    </row>
-    <row r="388" spans="1:13">
+      <c r="O387">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P387">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R387">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18">
       <c r="A388" s="4" t="s">
         <v>65</v>
       </c>
@@ -12758,8 +18196,24 @@
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
-    </row>
-    <row r="389" spans="1:13">
+      <c r="O388">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P388">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q388">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R388">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18">
       <c r="A389" s="4" t="s">
         <v>66</v>
       </c>
@@ -12800,7 +18254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:18">
       <c r="A390" s="4" t="s">
         <v>79</v>
       </c>
@@ -12841,7 +18295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:18">
       <c r="A391" s="4" t="s">
         <v>80</v>
       </c>
@@ -12882,7 +18336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:18">
       <c r="A392" s="4" t="s">
         <v>81</v>
       </c>
@@ -12923,7 +18377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:18">
       <c r="A393" s="4" t="s">
         <v>82</v>
       </c>
@@ -12964,7 +18418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:18">
       <c r="A394" s="4" t="s">
         <v>83</v>
       </c>
@@ -13005,7 +18459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:18">
       <c r="A395" s="4" t="s">
         <v>84</v>
       </c>
@@ -13046,7 +18500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:18">
       <c r="A396" s="4" t="s">
         <v>85</v>
       </c>
@@ -13087,7 +18541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:18">
       <c r="A397" s="4" t="s">
         <v>86</v>
       </c>
@@ -13128,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:18">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -13141,7 +18595,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:18">
       <c r="A399" s="4" t="s">
         <v>63</v>
       </c>
@@ -13158,7 +18612,7 @@
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:18">
       <c r="A400" s="4" t="s">
         <v>64</v>
       </c>
